--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H2">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>2325.128652327414</v>
+        <v>3063.791702930899</v>
       </c>
       <c r="R2">
-        <v>2325.128652327414</v>
+        <v>27574.12532637809</v>
       </c>
       <c r="S2">
-        <v>0.003056060050439649</v>
+        <v>0.003723327797897544</v>
       </c>
       <c r="T2">
-        <v>0.003056060050439649</v>
+        <v>0.003723327797897545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H3">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>2767.41348847594</v>
+        <v>3368.530180613955</v>
       </c>
       <c r="R3">
-        <v>2767.41348847594</v>
+        <v>30316.77162552559</v>
       </c>
       <c r="S3">
-        <v>0.003637382299991636</v>
+        <v>0.004093666696576874</v>
       </c>
       <c r="T3">
-        <v>0.003637382299991636</v>
+        <v>0.004093666696576874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H4">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>1010.893437801045</v>
+        <v>1358.795694143062</v>
       </c>
       <c r="R4">
-        <v>1010.893437801045</v>
+        <v>12229.16124728756</v>
       </c>
       <c r="S4">
-        <v>0.001328679618404334</v>
+        <v>0.001651300829239323</v>
       </c>
       <c r="T4">
-        <v>0.001328679618404334</v>
+        <v>0.001651300829239324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H5">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>1315.97171885234</v>
+        <v>1867.116368100402</v>
       </c>
       <c r="R5">
-        <v>1315.97171885234</v>
+        <v>16804.04731290361</v>
       </c>
       <c r="S5">
-        <v>0.001729662826814934</v>
+        <v>0.002269046641978755</v>
       </c>
       <c r="T5">
-        <v>0.001729662826814934</v>
+        <v>0.002269046641978755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H6">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>230640.2301227248</v>
+        <v>251379.7145392412</v>
       </c>
       <c r="R6">
-        <v>230640.2301227248</v>
+        <v>2262417.430853171</v>
       </c>
       <c r="S6">
-        <v>0.3031446851754734</v>
+        <v>0.3054937050962489</v>
       </c>
       <c r="T6">
-        <v>0.3031446851754734</v>
+        <v>0.305493705096249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H7">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>274512.5020019512</v>
+        <v>276383.0695179126</v>
       </c>
       <c r="R7">
-        <v>274512.5020019512</v>
+        <v>2487447.625661213</v>
       </c>
       <c r="S7">
-        <v>0.3608087190679302</v>
+        <v>0.3358794805207758</v>
       </c>
       <c r="T7">
-        <v>0.3608087190679302</v>
+        <v>0.3358794805207758</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H8">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>100275.1804252223</v>
+        <v>111487.2376552477</v>
       </c>
       <c r="R8">
-        <v>100275.1804252223</v>
+        <v>1003385.138897229</v>
       </c>
       <c r="S8">
-        <v>0.1317978567084456</v>
+        <v>0.135486864422113</v>
       </c>
       <c r="T8">
-        <v>0.1317978567084456</v>
+        <v>0.135486864422113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H9">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>130537.3015670711</v>
+        <v>153194.2198210234</v>
       </c>
       <c r="R9">
-        <v>130537.3015670711</v>
+        <v>1378747.978389211</v>
       </c>
       <c r="S9">
-        <v>0.1715732297273087</v>
+        <v>0.1861720222661325</v>
       </c>
       <c r="T9">
-        <v>0.1715732297273087</v>
+        <v>0.1861720222661325</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H10">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>1879.972736032632</v>
+        <v>2686.883594774868</v>
       </c>
       <c r="R10">
-        <v>1879.972736032632</v>
+        <v>24181.95235297382</v>
       </c>
       <c r="S10">
-        <v>0.002470964163103014</v>
+        <v>0.003265283461852165</v>
       </c>
       <c r="T10">
-        <v>0.002470964163103014</v>
+        <v>0.003265283461852166</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H11">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>2237.580231294275</v>
+        <v>2954.133099889719</v>
       </c>
       <c r="R11">
-        <v>2237.580231294275</v>
+        <v>26587.19789900747</v>
       </c>
       <c r="S11">
-        <v>0.002940989758853577</v>
+        <v>0.003590063214475879</v>
       </c>
       <c r="T11">
-        <v>0.002940989758853577</v>
+        <v>0.00359006321447588</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H12">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>817.3535258782103</v>
+        <v>1191.636447004918</v>
       </c>
       <c r="R12">
-        <v>817.3535258782103</v>
+        <v>10724.72802304426</v>
       </c>
       <c r="S12">
-        <v>0.001074298170564477</v>
+        <v>0.001448157557146222</v>
       </c>
       <c r="T12">
-        <v>0.001074298170564477</v>
+        <v>0.001448157557146222</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H13">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>1064.02325323202</v>
+        <v>1637.423436516745</v>
       </c>
       <c r="R13">
-        <v>1064.02325323202</v>
+        <v>14736.8109286507</v>
       </c>
       <c r="S13">
-        <v>0.001398511412986241</v>
+        <v>0.001989908188692952</v>
       </c>
       <c r="T13">
-        <v>0.001398511412986241</v>
+        <v>0.001989908188692952</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H14">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>3585.75582837909</v>
+        <v>3899.041859442804</v>
       </c>
       <c r="R14">
-        <v>3585.75582837909</v>
+        <v>35091.37673498524</v>
       </c>
       <c r="S14">
-        <v>0.004712980129839874</v>
+        <v>0.004738380525850306</v>
       </c>
       <c r="T14">
-        <v>0.004712980129839874</v>
+        <v>0.004738380525850307</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H15">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>4267.836549992399</v>
+        <v>4286.858067552663</v>
       </c>
       <c r="R15">
-        <v>4267.836549992399</v>
+        <v>38581.72260797396</v>
       </c>
       <c r="S15">
-        <v>0.00560948090729619</v>
+        <v>0.005209681125936573</v>
       </c>
       <c r="T15">
-        <v>0.00560948090729619</v>
+        <v>0.005209681125936573</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H16">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>1558.9748261185</v>
+        <v>1729.230249179878</v>
       </c>
       <c r="R16">
-        <v>1558.9748261185</v>
+        <v>15563.0722426189</v>
       </c>
       <c r="S16">
-        <v>0.002049056804221496</v>
+        <v>0.002101478063791842</v>
       </c>
       <c r="T16">
-        <v>0.002049056804221496</v>
+        <v>0.002101478063791842</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H17">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>2029.458996229492</v>
+        <v>2376.129182904337</v>
       </c>
       <c r="R17">
-        <v>2029.458996229492</v>
+        <v>21385.16264613903</v>
       </c>
       <c r="S17">
-        <v>0.002667443178326523</v>
+        <v>0.002887633591291448</v>
       </c>
       <c r="T17">
-        <v>0.002667443178326523</v>
+        <v>0.002887633591291448</v>
       </c>
     </row>
   </sheetData>
